--- a/NPOIDemo/bin/Debug/Test.xlsx
+++ b/NPOIDemo/bin/Debug/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="11175" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>姓名1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,12 +622,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="1" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -632,14 +637,17 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -653,14 +661,14 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>40179</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="e">
-        <f ca="1">DATEDIF(TODAY(),D2,"Y")</f>
-        <v>#NUM!</v>
+        <v>32874</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1">DATEDIF(D2,TODAY(),"y")</f>
+        <v>27</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -674,14 +682,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>40180</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f ca="1">_xlfn.DAYS(TODAY(),D3)</f>
-        <v>2790</v>
+        <v>33239</v>
+      </c>
+      <c r="E3" s="2">
+        <f ca="1">DATEDIF(D3,TODAY(),"y")</f>
+        <v>26</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -695,9 +703,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>40181</v>
-      </c>
-      <c r="E4" t="b">
+        <v>33604</v>
+      </c>
+      <c r="E4" s="2">
+        <f ca="1">DATEDIF(D4,TODAY(),"y")</f>
+        <v>25</v>
+      </c>
+      <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -712,14 +724,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>40182</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="e">
-        <f ca="1">YEARFRAC(D5,TODAY(),"y")</f>
-        <v>#VALUE!</v>
+        <v>33970</v>
+      </c>
+      <c r="E5" s="2">
+        <f ca="1">DATEDIF(D5,TODAY(),"y")</f>
+        <v>24</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -733,9 +745,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>40183</v>
-      </c>
-      <c r="E6" t="b">
+        <v>34335</v>
+      </c>
+      <c r="E6" s="2">
+        <f ca="1">DATEDIF(D6,TODAY(),"y")</f>
+        <v>23</v>
+      </c>
+      <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -750,9 +766,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>40184</v>
-      </c>
-      <c r="E7" t="b">
+        <v>34700</v>
+      </c>
+      <c r="E7" s="2">
+        <f ca="1">DATEDIF(D7,TODAY(),"y")</f>
+        <v>22</v>
+      </c>
+      <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -767,9 +787,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>40185</v>
-      </c>
-      <c r="E8" t="b">
+        <v>35065</v>
+      </c>
+      <c r="E8" s="2">
+        <f ca="1">DATEDIF(D8,TODAY(),"y")</f>
+        <v>21</v>
+      </c>
+      <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -784,9 +808,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>40186</v>
-      </c>
-      <c r="E9" t="b">
+        <v>35431</v>
+      </c>
+      <c r="E9" s="2">
+        <f ca="1">DATEDIF(D9,TODAY(),"y")</f>
+        <v>20</v>
+      </c>
+      <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -801,9 +829,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>40187</v>
-      </c>
-      <c r="E10" t="b">
+        <v>35796</v>
+      </c>
+      <c r="E10" s="2">
+        <f ca="1">DATEDIF(D10,TODAY(),"y")</f>
+        <v>19</v>
+      </c>
+      <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
